--- a/clean_order_data.xlsx
+++ b/clean_order_data.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Price Per Unit</t>
+          <t>Price Per Unit (£s)</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
         <v>149</v>
       </c>
       <c r="D2" t="n">
-        <v>1054</v>
+        <v>1054.63</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>146</v>
       </c>
       <c r="D3" t="n">
-        <v>1629</v>
+        <v>1629.57</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>1606</v>
+        <v>1606.67</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>115</v>
       </c>
       <c r="D5" t="n">
-        <v>1201</v>
+        <v>1201.03</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>150</v>
       </c>
       <c r="D6" t="n">
-        <v>1434</v>
+        <v>1434.28</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>289</v>
+        <v>289.95</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>500</v>
+        <v>500.08</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         <v>96</v>
       </c>
       <c r="D9" t="n">
-        <v>2100</v>
+        <v>2100.87</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         <v>86</v>
       </c>
       <c r="D10" t="n">
-        <v>132</v>
+        <v>132.42</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>138</v>
       </c>
       <c r="D11" t="n">
-        <v>994</v>
+        <v>994.4299999999999</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         <v>138</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>896.17</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>136</v>
       </c>
       <c r="D13" t="n">
-        <v>905</v>
+        <v>905.11</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         <v>148</v>
       </c>
       <c r="D14" t="n">
-        <v>1076</v>
+        <v>1076.55</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>147</v>
       </c>
       <c r="D15" t="n">
-        <v>1592</v>
+        <v>1592.19</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         <v>79</v>
       </c>
       <c r="D16" t="n">
-        <v>325</v>
+        <v>325.24</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         <v>132</v>
       </c>
       <c r="D17" t="n">
-        <v>1058</v>
+        <v>1058.77</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         <v>110</v>
       </c>
       <c r="D18" t="n">
-        <v>291</v>
+        <v>291.21</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         <v>92</v>
       </c>
       <c r="D19" t="n">
-        <v>1255</v>
+        <v>1255.21</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>82</v>
       </c>
       <c r="D20" t="n">
-        <v>2135</v>
+        <v>2135.78</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         <v>96</v>
       </c>
       <c r="D21" t="n">
-        <v>497</v>
+        <v>497.25</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         <v>107</v>
       </c>
       <c r="D22" t="n">
-        <v>1129</v>
+        <v>1129.05</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         <v>92</v>
       </c>
       <c r="D23" t="n">
-        <v>854</v>
+        <v>854.6900000000001</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         <v>93</v>
       </c>
       <c r="D24" t="n">
-        <v>830</v>
+        <v>830.78</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         <v>91</v>
       </c>
       <c r="D25" t="n">
-        <v>1131</v>
+        <v>1131.27</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         <v>120</v>
       </c>
       <c r="D26" t="n">
-        <v>2449</v>
+        <v>2449.87</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         <v>145</v>
       </c>
       <c r="D27" t="n">
-        <v>1578</v>
+        <v>1578.02</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         <v>94</v>
       </c>
       <c r="D28" t="n">
-        <v>2297</v>
+        <v>2297.42</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         <v>111</v>
       </c>
       <c r="D29" t="n">
-        <v>2606</v>
+        <v>2606.77</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         <v>101</v>
       </c>
       <c r="D30" t="n">
-        <v>277</v>
+        <v>277.81</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         <v>90</v>
       </c>
       <c r="D31" t="n">
-        <v>2172</v>
+        <v>2172.67</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         <v>114</v>
       </c>
       <c r="D32" t="n">
-        <v>2072</v>
+        <v>2072.84</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         <v>120</v>
       </c>
       <c r="D33" t="n">
-        <v>888</v>
+        <v>888.53</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         <v>124</v>
       </c>
       <c r="D34" t="n">
-        <v>618</v>
+        <v>618.09</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         <v>81</v>
       </c>
       <c r="D35" t="n">
-        <v>644</v>
+        <v>644.99</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         <v>111</v>
       </c>
       <c r="D36" t="n">
-        <v>2075</v>
+        <v>2075.84</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         <v>111</v>
       </c>
       <c r="D37" t="n">
-        <v>2581</v>
+        <v>2581.93</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         <v>121</v>
       </c>
       <c r="D38" t="n">
-        <v>724</v>
+        <v>724.99</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         <v>103</v>
       </c>
       <c r="D39" t="n">
-        <v>276</v>
+        <v>276.75</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         <v>146</v>
       </c>
       <c r="D40" t="n">
-        <v>1432</v>
+        <v>1432.77</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         <v>83</v>
       </c>
       <c r="D41" t="n">
-        <v>734</v>
+        <v>734.76</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         <v>149</v>
       </c>
       <c r="D42" t="n">
-        <v>39</v>
+        <v>39.34</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         <v>140</v>
       </c>
       <c r="D43" t="n">
-        <v>2900</v>
+        <v>2900.69</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         <v>105</v>
       </c>
       <c r="D44" t="n">
-        <v>1199</v>
+        <v>1199.25</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         <v>121</v>
       </c>
       <c r="D45" t="n">
-        <v>847</v>
+        <v>847.83</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         <v>118</v>
       </c>
       <c r="D46" t="n">
-        <v>650</v>
+        <v>650.3099999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         <v>76</v>
       </c>
       <c r="D47" t="n">
-        <v>1495</v>
+        <v>1495.55</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         <v>87</v>
       </c>
       <c r="D48" t="n">
-        <v>2106</v>
+        <v>2106.64</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         <v>105</v>
       </c>
       <c r="D49" t="n">
-        <v>2213</v>
+        <v>2213.31</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         <v>75</v>
       </c>
       <c r="D50" t="n">
-        <v>1038</v>
+        <v>1038.88</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         <v>114</v>
       </c>
       <c r="D51" t="n">
-        <v>1595</v>
+        <v>1595.77</v>
       </c>
     </row>
   </sheetData>
